--- a/Shared Documentation/Luke's Documents/For Charlie/Clash of Cosplayers - Schedule Timeframe (For Charlie).xlsx
+++ b/Shared Documentation/Luke's Documents/For Charlie/Clash of Cosplayers - Schedule Timeframe (For Charlie).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C2240950\Documents\GitHub\Project_Clash-of-Cosplayers\Shared Documentation\Luke's Documents\For Charlie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luke\Documents\GitHub\Project_Clash-of-Cosplayers\Shared Documentation\Luke's Documents\For Charlie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4F245F-21AD-4DE0-8DA4-5CCA4C375415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD3010A-A88E-4127-92BA-DA3684434E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{E57F7292-3F36-47CF-B64B-390F0A8E2C94}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E57F7292-3F36-47CF-B64B-390F0A8E2C94}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="51">
   <si>
     <t>Concept</t>
   </si>
@@ -164,9 +164,6 @@
     <t>Extra (skippable)</t>
   </si>
   <si>
-    <t>Package</t>
-  </si>
-  <si>
     <t>Ragdoll/physics</t>
   </si>
   <si>
@@ -183,6 +180,15 @@
   </si>
   <si>
     <t>ahead of schedule</t>
+  </si>
+  <si>
+    <t>pre-Package</t>
+  </si>
+  <si>
+    <t>improved re-Package</t>
+  </si>
+  <si>
+    <t>may delay</t>
   </si>
 </sst>
 </file>
@@ -322,24 +328,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -349,9 +351,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -674,20 +677,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88BD4154-D683-48E3-B727-AD028CFBFA14}">
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19:J20"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="10"/>
-    <col min="2" max="2" width="17.7109375" style="8" customWidth="1"/>
-    <col min="3" max="8" width="10.7109375" style="10" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" style="10" customWidth="1"/>
-    <col min="10" max="18" width="10.7109375" style="10" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="1" width="9.140625" style="7"/>
+    <col min="2" max="2" width="17.7109375" style="4" customWidth="1"/>
+    <col min="3" max="8" width="10.7109375" style="7" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" style="7" customWidth="1"/>
+    <col min="10" max="18" width="10.7109375" style="7" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -732,16 +735,16 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="15"/>
-    </row>
-    <row r="3" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>27</v>
       </c>
@@ -755,137 +758,134 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="17"/>
+      <c r="D4" s="15"/>
       <c r="E4" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="15"/>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="9"/>
+      <c r="B6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="8"/>
       <c r="F6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>36</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="7"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>36</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>36</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="7"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>46</v>
+      <c r="F10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>44</v>
+      <c r="B11" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F13" s="5" t="s">
@@ -899,11 +899,11 @@
       <c r="B14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="8" t="s">
         <v>36</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -911,152 +911,199 @@
         <v>27</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
         <v>33</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+      <c r="G16" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="17"/>
+    </row>
+    <row r="17" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I17" s="9" t="s">
-        <v>36</v>
+      <c r="I17" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="4" t="s">
         <v>7</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="J19" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B21" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="J20" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+      <c r="F21" s="4"/>
+      <c r="J21" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B22" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I21" s="18" t="s">
+      <c r="I22" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="M21" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="7"/>
-      <c r="I22" s="18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="7" t="s">
+      <c r="M27" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="M25" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="M26" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="8" t="s">
+      <c r="M28" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="M27" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B28" s="8" t="s">
+      <c r="M30" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="N28" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="8" t="s">
+      <c r="N31" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="N29" s="1" t="s">
-        <v>46</v>
+      <c r="N32" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Shared Documentation/Luke's Documents/For Charlie/Clash of Cosplayers - Schedule Timeframe (For Charlie).xlsx
+++ b/Shared Documentation/Luke's Documents/For Charlie/Clash of Cosplayers - Schedule Timeframe (For Charlie).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luke\Documents\GitHub\Project_Clash-of-Cosplayers\Shared Documentation\Luke's Documents\For Charlie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project_Clash-of-Cosplayers\Shared Documentation\Luke's Documents\For Charlie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD3010A-A88E-4127-92BA-DA3684434E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C22A2A-1FE8-4269-9ED0-E711BD87AC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E57F7292-3F36-47CF-B64B-390F0A8E2C94}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{E57F7292-3F36-47CF-B64B-390F0A8E2C94}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="53">
   <si>
     <t>Concept</t>
   </si>
@@ -189,6 +189,12 @@
   </si>
   <si>
     <t>may delay</t>
+  </si>
+  <si>
+    <t>Picking up Corpses</t>
+  </si>
+  <si>
+    <t>Trashcan death</t>
   </si>
 </sst>
 </file>
@@ -328,7 +334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -354,7 +360,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -677,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88BD4154-D683-48E3-B727-AD028CFBFA14}">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -930,7 +935,9 @@
       <c r="H16" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="I16" s="17"/>
+      <c r="I16" s="5" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
@@ -956,6 +963,9 @@
       <c r="I18" s="8" t="s">
         <v>36</v>
       </c>
+      <c r="J18" s="5" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
@@ -1028,49 +1038,37 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
+      <c r="B25" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B27" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+    <row r="28" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B28" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="M26" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="4" t="s">
+      <c r="M28" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="M27" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M28" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B29" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="M29" s="8" t="s">
         <v>36</v>
@@ -1092,7 +1090,10 @@
     </row>
     <row r="31" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
-        <v>35</v>
+        <v>49</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="N31" s="1" t="s">
         <v>45</v>
@@ -1100,9 +1101,28 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M32" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="N32" s="1" t="s">
+      <c r="N34" s="1" t="s">
         <v>45</v>
       </c>
     </row>

--- a/Shared Documentation/Luke's Documents/For Charlie/Clash of Cosplayers - Schedule Timeframe (For Charlie).xlsx
+++ b/Shared Documentation/Luke's Documents/For Charlie/Clash of Cosplayers - Schedule Timeframe (For Charlie).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project_Clash-of-Cosplayers\Shared Documentation\Luke's Documents\For Charlie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luke\Documents\GitHub\Project_Clash-of-Cosplayers\Shared Documentation\Luke's Documents\For Charlie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C22A2A-1FE8-4269-9ED0-E711BD87AC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B47EC1-FE40-4DF4-A808-47C5D0170003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{E57F7292-3F36-47CF-B64B-390F0A8E2C94}"/>
+    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{E57F7292-3F36-47CF-B64B-390F0A8E2C94}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="54">
   <si>
     <t>Concept</t>
   </si>
@@ -125,9 +125,6 @@
     <t>Beta-ready Attack</t>
   </si>
   <si>
-    <t>Playtest</t>
-  </si>
-  <si>
     <t>Pre-production</t>
   </si>
   <si>
@@ -195,6 +192,12 @@
   </si>
   <si>
     <t>Trashcan death</t>
+  </si>
+  <si>
+    <t>Playtest 1st Core</t>
+  </si>
+  <si>
+    <t>Iterated Playtest</t>
   </si>
 </sst>
 </file>
@@ -685,7 +688,7 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,10 +745,10 @@
     </row>
     <row r="2" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="13"/>
     </row>
@@ -768,10 +771,10 @@
         <v>27</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="5" t="s">
@@ -780,10 +783,10 @@
     </row>
     <row r="5" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G5" s="13"/>
     </row>
@@ -792,10 +795,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="5" t="s">
@@ -810,7 +813,7 @@
         <v>23</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>1</v>
@@ -825,7 +828,7 @@
         <v>24</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>1</v>
@@ -839,7 +842,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>1</v>
@@ -854,7 +857,7 @@
         <v>28</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="5" t="s">
@@ -869,7 +872,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>1</v>
@@ -902,13 +905,13 @@
         <v>27</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -916,24 +919,24 @@
         <v>27</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="G16" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>1</v>
@@ -941,16 +944,16 @@
     </row>
     <row r="17" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>6</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -961,7 +964,7 @@
         <v>7</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J18" s="5" t="s">
         <v>1</v>
@@ -972,13 +975,13 @@
         <v>27</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -986,39 +989,39 @@
         <v>27</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="F21" s="4"/>
       <c r="J21" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -1029,7 +1032,7 @@
         <v>8</v>
       </c>
       <c r="I23" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -1039,91 +1042,91 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M32" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
